--- a/Test/reference.xlsx
+++ b/Test/reference.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Testing_Lab\PycharmProjects\AndroidProject\Device\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Testing_Lab\PycharmProjects\AndroidProject\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57477146-98AD-4176-88A8-50BD54DBE195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB71903C-7E26-4404-A2DC-F3F4BE9B560A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="APK" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="64">
   <si>
     <t xml:space="preserve">Apk </t>
   </si>
@@ -89,9 +89,6 @@
     <t>Ph_plugin</t>
   </si>
   <si>
-    <t>0.1.439</t>
-  </si>
-  <si>
     <t xml:space="preserve">Utility </t>
   </si>
   <si>
@@ -150,9 +147,6 @@
   </si>
   <si>
     <t>Zebra DSP</t>
-  </si>
-  <si>
-    <t>10.0.1.1042</t>
   </si>
   <si>
     <t xml:space="preserve">    versionName=1.3.6</t>
@@ -223,6 +217,9 @@
   <si>
     <t xml:space="preserve">    versionName=10.0.7.1001
     versionName=10.0.1.1042</t>
+  </si>
+  <si>
+    <t>0.1.564</t>
   </si>
 </sst>
 </file>
@@ -562,10 +559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -617,7 +614,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -641,7 +638,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
@@ -657,7 +654,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
@@ -673,7 +670,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>5.9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
@@ -689,7 +686,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="2">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
@@ -713,23 +710,7 @@
         <v>19</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -743,7 +724,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{299C840A-F0A0-4544-B15E-DF923BF77880}">
   <dimension ref="E1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -755,15 +736,15 @@
   <sheetData>
     <row r="1" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F2">
         <v>51</v>
@@ -771,7 +752,7 @@
     </row>
     <row r="3" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F3">
         <v>100</v>
@@ -779,15 +760,15 @@
     </row>
     <row r="4" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
         <v>25</v>
-      </c>
-      <c r="F4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="5" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F5">
         <v>27</v>
@@ -795,7 +776,7 @@
     </row>
     <row r="6" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -803,31 +784,31 @@
     </row>
     <row r="7" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" t="s">
         <v>29</v>
-      </c>
-      <c r="F7" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="8" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" t="s">
         <v>31</v>
-      </c>
-      <c r="F8" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="9" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" t="s">
         <v>33</v>
-      </c>
-      <c r="F9" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="10" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -835,7 +816,7 @@
     </row>
     <row r="11" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -843,10 +824,10 @@
     </row>
     <row r="12" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" t="s">
         <v>37</v>
-      </c>
-      <c r="F12" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -878,7 +859,7 @@
         <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -886,7 +867,7 @@
         <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -894,7 +875,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -902,7 +883,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -910,7 +891,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -918,111 +899,111 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B19" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
